--- a/Report/Finals/User Test Questions and Responses.xlsx
+++ b/Report/Finals/User Test Questions and Responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahdi\Desktop\SIM\Intro to Programming 2\Finals Files\data-vis\Report\Finals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDE7444-C9E3-4776-B885-7483C7588A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CA46FF-97C6-49FC-BA01-259C4D365F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19245" yWindow="-16200" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -423,16 +423,8 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -446,10 +438,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,382 +732,382 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="88.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>1.3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>2.1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>3.1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="102" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5.3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>6.1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6.2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>7.1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>7.2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>7.3</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>8.1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D26"/>
@@ -1136,452 +1136,452 @@
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="88.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>1.3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>2.1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>3.1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="102" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5.3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>6.1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6.2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>7.1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>7.2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>7.3</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>8.1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1611,452 +1611,452 @@
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="88.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>1.3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>2.1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>3.1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="102" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5.3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>6.1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6.2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>7.1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>7.2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>7.3</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>8.1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2086,452 +2086,452 @@
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="88.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>1.3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>2.1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>3.1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="102" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5.3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>6.1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6.2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>7.1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>7.2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>7.3</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>8.1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2553,493 +2553,493 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD1C217-4D84-4009-B6F6-E78AAA93620F}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.3046875" customWidth="1"/>
-    <col min="6" max="6" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="88.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>1.2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>1.3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2.1</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>3.1</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="102" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5.2</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="7">
         <v>0.9</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>5.3</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="7">
         <v>1</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="7">
         <v>0.9</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6.1</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>6.2</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>7.1</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="7">
         <v>1</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>7.2</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="7">
         <v>1</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="7">
         <v>0.9</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>7.3</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="7">
         <v>1</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>8.1</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="7">
         <v>1</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="7">
         <v>1</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
+      <c r="A25" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D27"/>
@@ -3067,452 +3067,452 @@
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="88.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>1.3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>2.1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>3.1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="102" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5.3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>6.1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6.2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>7.1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>7.2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>7.3</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>8.1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3542,452 +3542,452 @@
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="88.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>1.3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>2.1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>3.1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="102" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5.3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>6.1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6.2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>7.1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>7.2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>7.3</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>8.1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4017,452 +4017,452 @@
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="88.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>1.3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>2.1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>3.1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="102" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5.3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>6.1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6.2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>7.1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>7.2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>7.3</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>8.1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4492,452 +4492,452 @@
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="88.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>1.3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>2.1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>3.1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="102" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5.3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>6.1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6.2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>7.1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>7.2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>7.3</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>8.1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4967,452 +4967,452 @@
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="88.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>1.3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>2.1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>3.1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="102" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5.3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>6.1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6.2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>7.1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>7.2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>7.3</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>8.1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5442,452 +5442,452 @@
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="88.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>1.3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>2.1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>3.1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="102" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5.3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>6.1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6.2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>7.1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>7.2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>7.3</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>8.1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5917,452 +5917,452 @@
   <cols>
     <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.3046875" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="88.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>1.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>1.3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>2.1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>3.1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="102" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>5.3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>6.1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>6.2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>7.1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>7.2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>7.3</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>8.1</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
